--- a/data/gihun/dataset/인천시출산율모델.xlsx
+++ b/data/gihun/dataset/인천시출산율모델.xlsx
@@ -2693,14 +2693,18 @@
       <c r="C81" t="n">
         <v>0.4674074074074074</v>
       </c>
-      <c r="D81" t="inlineStr"/>
+      <c r="D81" t="n">
+        <v>9.300000000000001</v>
+      </c>
       <c r="E81" t="n">
         <v>1350</v>
       </c>
       <c r="F81" t="n">
         <v>75.51000000000001</v>
       </c>
-      <c r="G81" t="inlineStr"/>
+      <c r="G81" t="n">
+        <v>0.003093467596385754</v>
+      </c>
       <c r="H81" t="n">
         <v>46.1</v>
       </c>
@@ -2727,14 +2731,18 @@
       <c r="C82" t="n">
         <v>0.6783154121863799</v>
       </c>
-      <c r="D82" t="inlineStr"/>
+      <c r="D82" t="n">
+        <v>9.325000000000001</v>
+      </c>
       <c r="E82" t="n">
         <v>1116</v>
       </c>
       <c r="F82" t="n">
         <v>75.584</v>
       </c>
-      <c r="G82" t="inlineStr"/>
+      <c r="G82" t="n">
+        <v>0.00309499429071459</v>
+      </c>
       <c r="H82" t="n">
         <v>46.4</v>
       </c>
@@ -2761,14 +2769,18 @@
       <c r="C83" t="n">
         <v>0.524187725631769</v>
       </c>
-      <c r="D83" t="inlineStr"/>
+      <c r="D83" t="n">
+        <v>9.350000000000001</v>
+      </c>
       <c r="E83" t="n">
         <v>1385</v>
       </c>
       <c r="F83" t="n">
         <v>76.181</v>
       </c>
-      <c r="G83" t="inlineStr"/>
+      <c r="G83" t="n">
+        <v>0.003096520985043425</v>
+      </c>
       <c r="H83" t="n">
         <v>47</v>
       </c>
@@ -2795,14 +2807,18 @@
       <c r="C84" t="n">
         <v>0.4901477832512315</v>
       </c>
-      <c r="D84" t="inlineStr"/>
+      <c r="D84" t="n">
+        <v>9.375</v>
+      </c>
       <c r="E84" t="n">
         <v>1218</v>
       </c>
       <c r="F84" t="n">
         <v>76.33</v>
       </c>
-      <c r="G84" t="inlineStr"/>
+      <c r="G84" t="n">
+        <v>0.003098047679372262</v>
+      </c>
       <c r="H84" t="n">
         <v>47.3</v>
       </c>
@@ -2829,14 +2845,18 @@
       <c r="C85" t="n">
         <v>0.4387376237623762</v>
       </c>
-      <c r="D85" t="inlineStr"/>
+      <c r="D85" t="n">
+        <v>9.4</v>
+      </c>
       <c r="E85" t="n">
         <v>1616</v>
       </c>
       <c r="F85" t="n">
         <v>76.33</v>
       </c>
-      <c r="G85" t="inlineStr"/>
+      <c r="G85" t="n">
+        <v>0.003099574373701098</v>
+      </c>
       <c r="H85" t="n">
         <v>47.6</v>
       </c>
@@ -2863,14 +2883,18 @@
       <c r="C86" t="n">
         <v>0.4989871708305199</v>
       </c>
-      <c r="D86" t="inlineStr"/>
+      <c r="D86" t="n">
+        <v>9.425000000000001</v>
+      </c>
       <c r="E86" t="n">
         <v>1481</v>
       </c>
       <c r="F86" t="n">
         <v>76.181</v>
       </c>
-      <c r="G86" t="inlineStr"/>
+      <c r="G86" t="n">
+        <v>0.003101101068029933</v>
+      </c>
       <c r="H86" t="n">
         <v>47.7</v>
       </c>
@@ -2897,14 +2921,18 @@
       <c r="C87" t="n">
         <v>0.5692041522491349</v>
       </c>
-      <c r="D87" t="inlineStr"/>
+      <c r="D87" t="n">
+        <v>9.449999999999999</v>
+      </c>
       <c r="E87" t="n">
         <v>1156</v>
       </c>
       <c r="F87" t="n">
         <v>76.405</v>
       </c>
-      <c r="G87" t="inlineStr"/>
+      <c r="G87" t="n">
+        <v>0.00310262776235877</v>
+      </c>
       <c r="H87" t="n">
         <v>47.7</v>
       </c>
@@ -2931,14 +2959,18 @@
       <c r="C88" t="n">
         <v>0.5981573352232459</v>
       </c>
-      <c r="D88" t="inlineStr"/>
+      <c r="D88" t="n">
+        <v>9.475</v>
+      </c>
       <c r="E88" t="n">
         <v>1411</v>
       </c>
       <c r="F88" t="n">
         <v>76.92700000000001</v>
       </c>
-      <c r="G88" t="inlineStr"/>
+      <c r="G88" t="n">
+        <v>0.003104154456687606</v>
+      </c>
       <c r="H88" t="n">
         <v>47.9</v>
       </c>
@@ -2965,14 +2997,18 @@
       <c r="C89" t="n">
         <v>0.708502024291498</v>
       </c>
-      <c r="D89" t="inlineStr"/>
+      <c r="D89" t="n">
+        <v>9.5</v>
+      </c>
       <c r="E89" t="n">
         <v>988</v>
       </c>
       <c r="F89" t="n">
         <v>77.15000000000001</v>
       </c>
-      <c r="G89" t="inlineStr"/>
+      <c r="G89" t="n">
+        <v>0.003105681151016441</v>
+      </c>
       <c r="H89" t="n">
         <v>48.2</v>
       </c>
@@ -2999,14 +3035,18 @@
       <c r="C90" t="n">
         <v>0.5041761579347001</v>
       </c>
-      <c r="D90" t="inlineStr"/>
+      <c r="D90" t="n">
+        <v>9.525</v>
+      </c>
       <c r="E90" t="n">
         <v>1317</v>
       </c>
       <c r="F90" t="n">
         <v>76.627</v>
       </c>
-      <c r="G90" t="inlineStr"/>
+      <c r="G90" t="n">
+        <v>0.003107207845345278</v>
+      </c>
       <c r="H90" t="n">
         <v>48.9</v>
       </c>
@@ -3033,14 +3073,18 @@
       <c r="C91" t="n">
         <v>0.4031443009545199</v>
       </c>
-      <c r="D91" t="inlineStr"/>
+      <c r="D91" t="n">
+        <v>9.550000000000001</v>
+      </c>
       <c r="E91" t="n">
         <v>1781</v>
       </c>
       <c r="F91" t="n">
         <v>76.181</v>
       </c>
-      <c r="G91" t="inlineStr"/>
+      <c r="G91" t="n">
+        <v>0.003108734539674114</v>
+      </c>
       <c r="H91" t="n">
         <v>49.6</v>
       </c>
@@ -3067,14 +3111,18 @@
       <c r="C92" t="n">
         <v>0.1592956592956593</v>
       </c>
-      <c r="D92" t="inlineStr"/>
+      <c r="D92" t="n">
+        <v>9.574999999999999</v>
+      </c>
       <c r="E92" t="n">
         <v>2442</v>
       </c>
       <c r="F92" t="n">
         <v>76.479</v>
       </c>
-      <c r="G92" t="inlineStr"/>
+      <c r="G92" t="n">
+        <v>0.003110261234002949</v>
+      </c>
       <c r="H92" t="n">
         <v>50.3</v>
       </c>
@@ -3101,14 +3149,18 @@
       <c r="C93" t="n">
         <v>0.3516746411483254</v>
       </c>
-      <c r="D93" t="inlineStr"/>
+      <c r="D93" t="n">
+        <v>9.6</v>
+      </c>
       <c r="E93" t="n">
         <v>1672</v>
       </c>
       <c r="F93" t="n">
         <v>76.627</v>
       </c>
-      <c r="G93" t="inlineStr"/>
+      <c r="G93" t="n">
+        <v>0.003111787928331786</v>
+      </c>
       <c r="H93" t="n">
         <v>50.7</v>
       </c>
@@ -3135,14 +3187,18 @@
       <c r="C94" t="n">
         <v>0.4082535003684599</v>
       </c>
-      <c r="D94" t="inlineStr"/>
+      <c r="D94" t="n">
+        <v>9.441666666666666</v>
+      </c>
       <c r="E94" t="n">
         <v>1357</v>
       </c>
       <c r="F94" t="n">
         <v>77.075</v>
       </c>
-      <c r="G94" t="inlineStr"/>
+      <c r="G94" t="n">
+        <v>0.003113323664147565</v>
+      </c>
       <c r="H94" t="n">
         <v>51.1</v>
       </c>
@@ -3169,14 +3225,18 @@
       <c r="C95" t="n">
         <v>0.4781704781704782</v>
       </c>
-      <c r="D95" t="inlineStr"/>
+      <c r="D95" t="n">
+        <v>9.283333333333333</v>
+      </c>
       <c r="E95" t="n">
         <v>1443</v>
       </c>
       <c r="F95" t="n">
         <v>77.44799999999999</v>
       </c>
-      <c r="G95" t="inlineStr"/>
+      <c r="G95" t="n">
+        <v>0.003114859399963346</v>
+      </c>
       <c r="H95" t="n">
         <v>51.4</v>
       </c>
@@ -3203,14 +3263,18 @@
       <c r="C96" t="n">
         <v>0.497887323943662</v>
       </c>
-      <c r="D96" t="inlineStr"/>
+      <c r="D96" t="n">
+        <v>9.125</v>
+      </c>
       <c r="E96" t="n">
         <v>1420</v>
       </c>
       <c r="F96" t="n">
         <v>77.746</v>
       </c>
-      <c r="G96" t="inlineStr"/>
+      <c r="G96" t="n">
+        <v>0.003116395135779125</v>
+      </c>
       <c r="H96" t="n">
         <v>51.8</v>
       </c>
@@ -3237,14 +3301,18 @@
       <c r="C97" t="n">
         <v>0.3997539975399754</v>
       </c>
-      <c r="D97" t="inlineStr"/>
+      <c r="D97" t="n">
+        <v>8.966666666666667</v>
+      </c>
       <c r="E97" t="n">
         <v>1626</v>
       </c>
       <c r="F97" t="n">
         <v>77.895</v>
       </c>
-      <c r="G97" t="inlineStr"/>
+      <c r="G97" t="n">
+        <v>0.003117930871594905</v>
+      </c>
       <c r="H97" t="n">
         <v>51.9</v>
       </c>
@@ -3271,14 +3339,18 @@
       <c r="C98" t="n">
         <v>0.4507702612190221</v>
       </c>
-      <c r="D98" t="inlineStr"/>
+      <c r="D98" t="n">
+        <v>8.808333333333334</v>
+      </c>
       <c r="E98" t="n">
         <v>1493</v>
       </c>
       <c r="F98" t="n">
         <v>77.97</v>
       </c>
-      <c r="G98" t="inlineStr"/>
+      <c r="G98" t="n">
+        <v>0.003119466607410686</v>
+      </c>
       <c r="H98" t="n">
         <v>52.1</v>
       </c>
@@ -3305,14 +3377,18 @@
       <c r="C99" t="n">
         <v>0.5220077220077221</v>
       </c>
-      <c r="D99" t="inlineStr"/>
+      <c r="D99" t="n">
+        <v>8.65</v>
+      </c>
       <c r="E99" t="n">
         <v>1295</v>
       </c>
       <c r="F99" t="n">
         <v>78.119</v>
       </c>
-      <c r="G99" t="inlineStr"/>
+      <c r="G99" t="n">
+        <v>0.003121002343226465</v>
+      </c>
       <c r="H99" t="n">
         <v>52.1</v>
       </c>
@@ -3339,14 +3415,18 @@
       <c r="C100" t="n">
         <v>0.4876673713883016</v>
       </c>
-      <c r="D100" t="inlineStr"/>
+      <c r="D100" t="n">
+        <v>8.491666666666667</v>
+      </c>
       <c r="E100" t="n">
         <v>1419</v>
       </c>
       <c r="F100" t="n">
         <v>78.268</v>
       </c>
-      <c r="G100" t="inlineStr"/>
+      <c r="G100" t="n">
+        <v>0.003122538079042245</v>
+      </c>
       <c r="H100" t="n">
         <v>52.1</v>
       </c>
@@ -3373,14 +3453,18 @@
       <c r="C101" t="n">
         <v>0.5621414913957935</v>
       </c>
-      <c r="D101" t="inlineStr"/>
+      <c r="D101" t="n">
+        <v>8.333333333333334</v>
+      </c>
       <c r="E101" t="n">
         <v>1046</v>
       </c>
       <c r="F101" t="n">
         <v>78.864</v>
       </c>
-      <c r="G101" t="inlineStr"/>
+      <c r="G101" t="n">
+        <v>0.003124073814858025</v>
+      </c>
       <c r="H101" t="n">
         <v>52.1</v>
       </c>
@@ -3407,14 +3491,18 @@
       <c r="C102" t="n">
         <v>0.4709677419354839</v>
       </c>
-      <c r="D102" t="inlineStr"/>
+      <c r="D102" t="n">
+        <v>8.175000000000001</v>
+      </c>
       <c r="E102" t="n">
         <v>1550</v>
       </c>
       <c r="F102" t="n">
         <v>78.93899999999999</v>
       </c>
-      <c r="G102" t="inlineStr"/>
+      <c r="G102" t="n">
+        <v>0.003125609550673805</v>
+      </c>
       <c r="H102" t="n">
         <v>52</v>
       </c>
@@ -3441,14 +3529,18 @@
       <c r="C103" t="n">
         <v>0.3720287451630735</v>
       </c>
-      <c r="D103" t="inlineStr"/>
+      <c r="D103" t="n">
+        <v>8.016666666666666</v>
+      </c>
       <c r="E103" t="n">
         <v>1809</v>
       </c>
       <c r="F103" t="n">
         <v>79.014</v>
       </c>
-      <c r="G103" t="inlineStr"/>
+      <c r="G103" t="n">
+        <v>0.003127145286489585</v>
+      </c>
       <c r="H103" t="n">
         <v>52</v>
       </c>
@@ -3475,14 +3567,18 @@
       <c r="C104" t="n">
         <v>0.3018597997138769</v>
       </c>
-      <c r="D104" t="inlineStr"/>
+      <c r="D104" t="n">
+        <v>7.858333333333333</v>
+      </c>
       <c r="E104" t="n">
         <v>2097</v>
       </c>
       <c r="F104" t="n">
         <v>79.23699999999999</v>
       </c>
-      <c r="G104" t="inlineStr"/>
+      <c r="G104" t="n">
+        <v>0.003128681022305365</v>
+      </c>
       <c r="H104" t="n">
         <v>51.9</v>
       </c>
@@ -9898,7 +9994,9 @@
       <c r="F273" t="n">
         <v>104.99</v>
       </c>
-      <c r="G273" t="inlineStr"/>
+      <c r="G273" t="n">
+        <v>0.001409154360443759</v>
+      </c>
       <c r="H273" t="n">
         <v>106.3</v>
       </c>
@@ -9928,7 +10026,9 @@
       <c r="F274" t="n">
         <v>105.64</v>
       </c>
-      <c r="G274" t="inlineStr"/>
+      <c r="G274" t="n">
+        <v>0.001409154360443759</v>
+      </c>
       <c r="H274" t="n">
         <v>106</v>
       </c>
@@ -9958,7 +10058,9 @@
       <c r="F275" t="n">
         <v>106.29</v>
       </c>
-      <c r="G275" t="inlineStr"/>
+      <c r="G275" t="n">
+        <v>0.001409154360443759</v>
+      </c>
       <c r="H275" t="n">
         <v>105.5</v>
       </c>
@@ -9988,7 +10090,9 @@
       <c r="F276" t="n">
         <v>107.1</v>
       </c>
-      <c r="G276" t="inlineStr"/>
+      <c r="G276" t="n">
+        <v>0.001409154360443759</v>
+      </c>
       <c r="H276" t="n">
         <v>105.3</v>
       </c>
@@ -10018,7 +10122,9 @@
       <c r="F277" t="n">
         <v>107.82</v>
       </c>
-      <c r="G277" t="inlineStr"/>
+      <c r="G277" t="n">
+        <v>0.001409154360443759</v>
+      </c>
       <c r="H277" t="n">
         <v>104.9</v>
       </c>
@@ -10048,7 +10154,9 @@
       <c r="F278" t="n">
         <v>108.49</v>
       </c>
-      <c r="G278" t="inlineStr"/>
+      <c r="G278" t="n">
+        <v>0.001409154360443759</v>
+      </c>
       <c r="H278" t="n">
         <v>104.4</v>
       </c>
@@ -10078,7 +10186,9 @@
       <c r="F279" t="n">
         <v>108.9</v>
       </c>
-      <c r="G279" t="inlineStr"/>
+      <c r="G279" t="n">
+        <v>0.001409154360443759</v>
+      </c>
       <c r="H279" t="n">
         <v>103.8</v>
       </c>
@@ -10108,7 +10218,9 @@
       <c r="F280" t="n">
         <v>108.66</v>
       </c>
-      <c r="G280" t="inlineStr"/>
+      <c r="G280" t="n">
+        <v>0.001409154360443759</v>
+      </c>
       <c r="H280" t="n">
         <v>102.7</v>
       </c>
@@ -10138,7 +10250,9 @@
       <c r="F281" t="n">
         <v>109.05</v>
       </c>
-      <c r="G281" t="inlineStr"/>
+      <c r="G281" t="n">
+        <v>0.001409154360443759</v>
+      </c>
       <c r="H281" t="n">
         <v>101.3</v>
       </c>
@@ -10168,7 +10282,9 @@
       <c r="F282" t="n">
         <v>109.44</v>
       </c>
-      <c r="G282" t="inlineStr"/>
+      <c r="G282" t="n">
+        <v>0.001409154360443759</v>
+      </c>
       <c r="H282" t="n">
         <v>99.2</v>
       </c>
@@ -10198,7 +10314,9 @@
       <c r="F283" t="n">
         <v>109.4</v>
       </c>
-      <c r="G283" t="inlineStr"/>
+      <c r="G283" t="n">
+        <v>0.001409154360443759</v>
+      </c>
       <c r="H283" t="n">
         <v>95.59999999999999</v>
       </c>
@@ -10222,13 +10340,15 @@
       </c>
       <c r="C284" t="inlineStr"/>
       <c r="D284" t="n">
-        <v>15.6</v>
+        <v>18</v>
       </c>
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="n">
         <v>109.7</v>
       </c>
-      <c r="G284" t="inlineStr"/>
+      <c r="G284" t="n">
+        <v>0.001409154360443759</v>
+      </c>
       <c r="H284" t="n">
         <v>90.40000000000001</v>
       </c>
@@ -10256,7 +10376,9 @@
       <c r="F285" t="n">
         <v>110.52</v>
       </c>
-      <c r="G285" t="inlineStr"/>
+      <c r="G285" t="n">
+        <v>0.001409154360443759</v>
+      </c>
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
